--- a/files/cheat-table.xlsx
+++ b/files/cheat-table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdd\Documents\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xdd\Documents\project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87151B24-4FF7-4ED1-8598-92202F3DC89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB33F362-598B-4B4A-853D-B6E437DB3210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{830D8D14-2B03-44B8-9105-CF03210A1831}"/>
   </bookViews>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Organizador Inteligente Vida Acadêmica e Financeira</t>
   </si>
   <si>
-    <t>Tecnologias</t>
-  </si>
-  <si>
     <t>Front-end</t>
   </si>
   <si>
@@ -96,13 +93,28 @@
   </si>
   <si>
     <t>Colocar online, criar README, gravar vídeo explicando o problema, solução e porque você pensou assim.</t>
+  </si>
+  <si>
+    <t>Dados</t>
+  </si>
+  <si>
+    <t>Matérias</t>
+  </si>
+  <si>
+    <t>Gastos</t>
+  </si>
+  <si>
+    <t>Data de fim prevista</t>
+  </si>
+  <si>
+    <t>Stack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +174,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +244,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF89"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -314,21 +346,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -338,7 +374,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -364,9 +399,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,6 +414,33 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,6 +449,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF89"/>
       <color rgb="FFFA7406"/>
     </mruColors>
   </colors>
@@ -721,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C161A9-C265-4890-A42A-C1698A2ED412}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -737,176 +797,218 @@
     <col min="9" max="9" width="16.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="130.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="66.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="45" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="3"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.4">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="8"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="H9" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="20">
+        <v>1</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="G9" s="6" t="s">
+      <c r="N9" s="30">
+        <v>46036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="19">
         <v>2</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="M10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="29">
+        <v>46043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="20">
         <v>3</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="M11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="30">
+        <v>46050</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="19">
         <v>4</v>
       </c>
-      <c r="L9" s="25">
-        <v>1</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="5" t="s">
+      <c r="M12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="29">
+        <v>46057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="20">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="24">
-        <v>2</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G11" s="4" t="s">
+      <c r="M13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="30">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="19">
         <v>6</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="L11" s="25">
-        <v>3</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="24">
-        <v>4</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="25">
-        <v>5</v>
-      </c>
-      <c r="M13" s="26" t="s">
+      <c r="M14" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="24">
-        <v>6</v>
-      </c>
-      <c r="M14" s="28" t="s">
+      <c r="N14" s="29">
+        <v>46071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="6:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F15" s="21"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F16" s="21"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="6:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F17" s="21"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="6:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F18" s="21"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="6:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F19" s="21"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="28"/>
+    </row>
+    <row r="22" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="28"/>
+    </row>
+    <row r="23" spans="6:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
